--- a/biology/Zoologie/Aplocheilidae/Aplocheilidae.xlsx
+++ b/biology/Zoologie/Aplocheilidae/Aplocheilidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Aplocheilidae regroupe seulement 2 genres de poissons. Cette famille appartient à l'ordre des Cyprinodontiformes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Aplocheilidae regroupe seulement 2 genres de poissons. Cette famille appartient à l'ordre des Cyprinodontiformes.
 </t>
         </is>
       </c>
@@ -511,13 +523,49 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fishbase 14 espèces répartie en 2 genres[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Fishbase 14 espèces répartie en 2 genres:
 genre Aplocheilus McClelland, 1839
-genre Pachypanchax Myers, 1933
-Note
-ITIS reconnait plus largement cette famille et y regroupe pas moins de 39 genres réparties en deux sous-familles[3]. Selon ITIS:
+genre Pachypanchax Myers, 1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aplocheilidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aplocheilidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ITIS reconnait plus largement cette famille et y regroupe pas moins de 39 genres réparties en deux sous-familles. Selon ITIS:
 </t>
         </is>
       </c>
